--- a/wwwroot/Plantillas/1000F-PRD-119 FORMATO PMU FAMILIA 16X24.xlsx
+++ b/wwwroot/Plantillas/1000F-PRD-119 FORMATO PMU FAMILIA 16X24.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1D17CD-3069-4282-AFC5-45E91AF02F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F2D6AF-6502-484D-8416-912297CF3E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -279,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +415,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,28 +702,28 @@
   </sheetPr>
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="12" width="7.6640625" customWidth="1"/>
-    <col min="13" max="14" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" customWidth="1"/>
-    <col min="17" max="20" width="7.33203125" customWidth="1"/>
-    <col min="21" max="24" width="7.6640625" customWidth="1"/>
-    <col min="25" max="26" width="8.5546875" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="24" width="7.7109375" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
@@ -750,7 +754,7 @@
       <c r="Z1" s="19"/>
       <c r="AA1" s="20"/>
     </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
@@ -787,7 +791,7 @@
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="1:27" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -820,7 +824,7 @@
       <c r="Z3" s="28"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:27" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
@@ -859,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36" t="s">
@@ -922,7 +926,7 @@
       <c r="Z5" s="23"/>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:27" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -981,8 +985,8 @@
       </c>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
       <c r="B7" s="5"/>
       <c r="C7" s="10"/>
       <c r="D7" s="5"/>
@@ -1010,7 +1014,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1039,7 +1043,7 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1068,7 +1072,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1097,7 +1101,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1126,7 +1130,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1155,7 +1159,7 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1184,7 +1188,7 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1213,7 +1217,7 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1242,7 +1246,7 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1271,7 +1275,7 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1300,7 +1304,7 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1329,7 +1333,7 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -1358,7 +1362,7 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -1387,7 +1391,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -1416,7 +1420,7 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -1445,7 +1449,7 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -1474,7 +1478,7 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -1503,7 +1507,7 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -1532,7 +1536,7 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -1561,7 +1565,7 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -1590,7 +1594,7 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -1619,7 +1623,7 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -1648,7 +1652,7 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -1677,7 +1681,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -1706,7 +1710,7 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -1735,7 +1739,7 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1764,7 +1768,7 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -1793,7 +1797,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -1822,7 +1826,7 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -1851,7 +1855,7 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1880,7 +1884,7 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -1909,7 +1913,7 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
@@ -1946,7 +1950,7 @@
       <c r="Z39" s="44"/>
       <c r="AA39" s="44"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -1983,7 +1987,7 @@
       <c r="Z40" s="30"/>
       <c r="AA40" s="30"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -2012,7 +2016,7 @@
       <c r="Z41" s="30"/>
       <c r="AA41" s="30"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -2041,7 +2045,7 @@
       <c r="Z42" s="30"/>
       <c r="AA42" s="30"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -2070,7 +2074,7 @@
       <c r="Z43" s="30"/>
       <c r="AA43" s="30"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
